--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FayzaAbdelSalam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FayzaAbdelSalam\Downloads\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>abc4@def.com</t>
+  </si>
+  <si>
+    <t>mohamed.atiea</t>
   </si>
 </sst>
 </file>
@@ -376,9 +379,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -450,6 +455,17 @@
       </c>
       <c r="C6">
         <v>12348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>45678</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>mohamed.atiea</t>
+  </si>
+  <si>
+    <t>rita.raouf</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>asas</t>
+  </si>
+  <si>
+    <t>n2b2</t>
   </si>
 </sst>
 </file>
@@ -379,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,6 +483,47 @@
         <v>45678</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>12367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>52535235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>12121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
